--- a/src/assets/doc/Customer_Service_list_template.xlsx
+++ b/src/assets/doc/Customer_Service_list_template.xlsx
@@ -18,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>Customer Account Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Customer Service Code</t>
   </si>
@@ -84,23 +81,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border/>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
     </border>
     <border>
       <left/>
@@ -112,74 +109,34 @@
       </top>
       <bottom/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,14 +368,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -426,27 +383,27 @@
         <v>100001.0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>100001.0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/src/assets/doc/Customer_Service_list_template.xlsx
+++ b/src/assets/doc/Customer_Service_list_template.xlsx
@@ -18,12 +18,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>Customer Account Number</t>
+  </si>
   <si>
     <t>Customer Service Code</t>
   </si>
   <si>
     <t>Customer Service Name</t>
+  </si>
+  <si>
+    <t>Tracking Service Code</t>
   </si>
   <si>
     <t>DHL2021_01</t>
@@ -45,11 +51,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -113,29 +125,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
@@ -368,42 +383,42 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>100001.0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>100001.0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
